--- a/LibroCert.xlsx
+++ b/LibroCert.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>19.819.424-7</t>
@@ -23,7 +23,7 @@
     <t>valparaiso</t>
   </si>
   <si>
-    <t>P</t>
+    <t>A</t>
   </si>
   <si>
     <t>19.818.424-7</t>
@@ -94,40 +94,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
